--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>User</t>
   </si>
@@ -154,6 +154,33 @@
   </si>
   <si>
     <t>Link to profile photo</t>
+  </si>
+  <si>
+    <t>Historic Data</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>DatePosted</t>
+  </si>
+  <si>
+    <t>DateHired</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>JobApplications</t>
+  </si>
+  <si>
+    <t>SubmissionDate</t>
+  </si>
+  <si>
+    <t>ProfileApplications</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -200,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -375,10 +402,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -391,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,6 +523,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,15 +541,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,7 +550,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M12"/>
+  <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -757,40 +893,42 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="2:13" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -823,20 +961,23 @@
       <c r="K4" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -863,8 +1004,14 @@
       <c r="I7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -892,87 +1039,249 @@
       <c r="I8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="L12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B10:J10"/>
+  <mergeCells count="6">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>User</t>
   </si>
@@ -174,13 +174,28 @@
     <t>JobApplications</t>
   </si>
   <si>
-    <t>SubmissionDate</t>
-  </si>
-  <si>
     <t>ProfileApplications</t>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>UID(Provider)</t>
+  </si>
+  <si>
+    <t>DateAvail</t>
+  </si>
+  <si>
+    <t>DateReq</t>
+  </si>
+  <si>
+    <t>1000000+</t>
+  </si>
+  <si>
+    <t>3000000+</t>
+  </si>
+  <si>
+    <t>7000000+</t>
   </si>
 </sst>
 </file>
@@ -532,24 +547,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,6 +581,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M24"/>
+  <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -879,24 +894,24 @@
     <col min="7" max="16384" width="17.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="21"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="2:13" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
@@ -909,7 +924,7 @@
       <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="14" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -927,10 +942,10 @@
       <c r="K3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="16"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
@@ -961,33 +976,33 @@
       <c r="K4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>9</v>
@@ -995,26 +1010,29 @@
       <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1030,43 +1048,46 @@
       <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="M8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1074,10 +1095,10 @@
         <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>9</v>
@@ -1085,37 +1106,40 @@
       <c r="G11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="N11" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>33</v>
@@ -1123,40 +1147,43 @@
       <c r="G12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+    <row r="13" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1166,28 +1193,31 @@
       <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>30</v>
@@ -1195,42 +1225,45 @@
       <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="K16" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>51</v>
+      <c r="C19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1246,21 +1279,21 @@
     </row>
     <row r="21" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
+      <c r="B22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1272,6 +1305,30 @@
       </c>
       <c r="D24" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
